--- a/biology/Botanique/Euonymus/Euonymus.xlsx
+++ b/biology/Botanique/Euonymus/Euonymus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euonymus est un genre de la famille des Celastraceae comprenant de 170 à 180 espèces[1] d'arbres, arbustes et plantes radicantes à feuilles caduques ou persistantes. La plupart sont originaires de l'Asie du Sud-Est (y compris l'Himalaya), mais on en trouve ailleurs en Asie, ainsi qu'en Europe, Amérique du Nord, Australasie et Madagascar. C'est le genre des fusains véritables.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euonymus est un genre de la famille des Celastraceae comprenant de 170 à 180 espèces d'arbres, arbustes et plantes radicantes à feuilles caduques ou persistantes. La plupart sont originaires de l'Asie du Sud-Est (y compris l'Himalaya), mais on en trouve ailleurs en Asie, ainsi qu'en Europe, Amérique du Nord, Australasie et Madagascar. C'est le genre des fusains véritables.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont opposées, rarement alternées, de forme elliptiques à ovales ou lancéolées, acuminées, finement dentées. Elles deviennent généralement rouges à l'automne.
 Les fleurs sont jaunâtres ou verdâtres, formées de quatre pétales, en groupes de plus de dix, à l'aiselle des feuilles.
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont principalement utilisés comme arbre d'ornement pour leurs feuillages d'automne et leurs fruits décoratifs.
 Le fusain d'Europe pousse naturellement dans les haies des bocages, les lisières et parfois même les ripisylves.
@@ -577,7 +593,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques espèces :
 </t>
